--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Condominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272D71EB-76FC-46C9-967C-913A7EB295DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8ABD8F-F237-4414-A450-7833F6D97286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Dados em m3</t>
   </si>
@@ -120,34 +120,19 @@
     <t>senha</t>
   </si>
   <si>
-    <t>mr. M</t>
-  </si>
-  <si>
-    <t>mr. NP</t>
-  </si>
-  <si>
-    <t>mr. MP</t>
-  </si>
-  <si>
-    <t>mr. AZ</t>
-  </si>
-  <si>
     <t>Remetente</t>
   </si>
   <si>
     <t>Empresa destinatária</t>
   </si>
   <si>
-    <t>Destinatário</t>
-  </si>
-  <si>
     <t>email empresa</t>
   </si>
   <si>
     <t>emails de retorno</t>
   </si>
   <si>
-    <t>cwiq ygoo exko zbov</t>
+    <t>cwiqygooexkozbov</t>
   </si>
 </sst>
 </file>
@@ -925,10 +910,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0233C4-2F21-450C-9986-3E07F07A2BD0}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,90 +926,75 @@
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="24" t="s">
+      <c r="D2" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="24" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{7DB21873-34EC-41E4-8D39-DC765CE71FFE}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{5AC31D6F-D30A-47F4-A74C-A0CAC12ADD0A}"/>
-    <hyperlink ref="D4:D6" r:id="rId3" display="ggsv2006@gmail.com" xr:uid="{768D2EAA-BB65-4A55-8D59-334CEF69E9C0}"/>
-    <hyperlink ref="F2" r:id="rId4" xr:uid="{6522EB1D-4FAF-4C9B-B911-40829419E3B1}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{7DB21873-34EC-41E4-8D39-DC765CE71FFE}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{5AC31D6F-D30A-47F4-A74C-A0CAC12ADD0A}"/>
+    <hyperlink ref="C4:C6" r:id="rId3" display="ggsv2006@gmail.com" xr:uid="{768D2EAA-BB65-4A55-8D59-334CEF69E9C0}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{6522EB1D-4FAF-4C9B-B911-40829419E3B1}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId5"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Condominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8ABD8F-F237-4414-A450-7833F6D97286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436E61C5-9721-4297-A45C-F99486A931C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -910,10 +910,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0233C4-2F21-450C-9986-3E07F07A2BD0}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,6 +988,9 @@
       <c r="C6" s="24" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/config.xlsx
+++ b/config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\dist agua\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Condominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A564501-2D1B-4E14-8D7A-F0E5457B0AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79055F76-7CBD-4F90-A500-8BD3B226C251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>4) Criar uma senha de app</t>
   </si>
   <si>
-    <t>5) Copiar e colar na célula da planilha</t>
-  </si>
-  <si>
     <t>V1.0 7/24</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>Obs: Qualquer alteração de edição das empresas na planilha emails deve também ser alterada na planilha "dados.xlsx".</t>
+  </si>
+  <si>
+    <t>5) Copiar e colar na célula da planilha. Caso possua espaços, é necessário retirar</t>
   </si>
 </sst>
 </file>
@@ -924,7 +924,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1006,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,42 +1017,42 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1082,17 +1082,17 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Condominio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\pyton\Condominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79055F76-7CBD-4F90-A500-8BD3B226C251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8953974-A540-47DE-9C90-446F7D7B2EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fatores" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
     <t>Obs: Qualquer alteração de edição das empresas na planilha emails deve também ser alterada na planilha "dados.xlsx".</t>
   </si>
   <si>
-    <t>5) Copiar e colar na célula da planilha. Caso possua espaços, é necessário retirar</t>
+    <t>5) Copiar e colar na célula da planilha. É necessário apagar espaços caso haja</t>
   </si>
 </sst>
 </file>
@@ -923,7 +923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0233C4-2F21-450C-9986-3E07F07A2BD0}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -1005,8 +1005,8 @@
   </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
